--- a/target/classes/excel/readloocup_output.xlsx
+++ b/target/classes/excel/readloocup_output.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java\Workspace\ExcelFromXMLObject\src\main\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93D36F8E-1CA8-4BC7-B77E-8F9A3D6DEFC7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AB33A72-BEA9-46E5-BE31-F632F3B080D0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1365" yWindow="2355" windowWidth="21600" windowHeight="11385" xr2:uid="{D048C21C-6F62-426E-A658-66B2421AE3F1}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="71">
   <si>
     <t>Lettura Scheda</t>
   </si>
@@ -42,12 +42,39 @@
     <t>${String}</t>
   </si>
   <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>Column2</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
     <t>005</t>
   </si>
   <si>
+    <t>2,0</t>
+  </si>
+  <si>
+    <t>-3,14</t>
+  </si>
+  <si>
+    <t>4-</t>
+  </si>
+  <si>
+    <t>12,12000</t>
+  </si>
+  <si>
+    <t>ROCMAT</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>1000</t>
+  </si>
+  <si>
     <t>1,1</t>
   </si>
   <si>
@@ -63,18 +90,12 @@
     <t>FIOGIA</t>
   </si>
   <si>
-    <t>01</t>
-  </si>
-  <si>
     <t>20</t>
   </si>
   <si>
     <t>001</t>
   </si>
   <si>
-    <t>2,0</t>
-  </si>
-  <si>
     <t>-2,13</t>
   </si>
   <si>
@@ -96,9 +117,6 @@
     <t>3,1</t>
   </si>
   <si>
-    <t>-3,14</t>
-  </si>
-  <si>
     <t>-3</t>
   </si>
   <si>
@@ -141,9 +159,6 @@
     <t>-12</t>
   </si>
   <si>
-    <t>12,12000</t>
-  </si>
-  <si>
     <t>BELQUI</t>
   </si>
   <si>
@@ -162,9 +177,6 @@
     <t>13.123.213,01200</t>
   </si>
   <si>
-    <t>ROCMAT</t>
-  </si>
-  <si>
     <t>66</t>
   </si>
   <si>
@@ -199,9 +211,6 @@
   </si>
   <si>
     <t>CARLUC</t>
-  </si>
-  <si>
-    <t>1000</t>
   </si>
   <si>
     <t>55</t>
@@ -325,6 +334,17 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{97545357-5703-40BA-8A68-9D9A4D1667C2}" name="Table3" displayName="Table3" ref="A5:B15" totalsRowShown="0">
+  <autoFilter ref="A5:B6" xr:uid="{E84FFCB2-D86E-4E22-9505-1DF7641403AA}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{C93CBB3D-9A64-445C-807B-16FF0530B2BE}" name="Column1"/>
+    <tableColumn id="2" xr3:uid="{A3840DA8-52D5-4439-9C7E-96D4676E7D78}" name="Column2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -627,13 +647,13 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="25.0" collapsed="false"/>
-    <col min="2" max="2" width="25.0" customWidth="true"/>
+    <col min="2" max="2" customWidth="true" width="25.0" collapsed="false"/>
     <col min="3" max="3" width="25.0" customWidth="true"/>
     <col min="4" max="4" width="25.0" customWidth="true"/>
     <col min="5" max="5" width="25.0" customWidth="true"/>
@@ -642,70 +662,68 @@
     <col min="8" max="8" width="25.0" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="26.25" x14ac:dyDescent="0.4" customHeight="true">
+    <row r="1" spans="1:2" ht="26.25" x14ac:dyDescent="0.4" customHeight="true">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" ht="15.0" customHeight="true"/>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25" ht="15.0" customHeight="true">
-      <c r="A3" s="0"/>
-      <c r="B3" s="0"/>
-      <c r="C3" s="0"/>
-      <c r="D3" s="0"/>
-      <c r="E3" s="0"/>
-      <c r="F3" s="0"/>
-      <c r="G3" s="0"/>
-      <c r="H3" s="0"/>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25" ht="15.0" customHeight="true">
+      <c r="A3" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="G3" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="H3" t="s" s="0">
+        <v>12</v>
+      </c>
     </row>
     <row r="4" ht="15.0" customHeight="true"/>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25" ht="15.0" customHeight="true">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25" ht="15.0" customHeight="true">
       <c r="A5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s" s="0">
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25" ht="15.0" customHeight="true">
+      <c r="A6" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="D5" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="E5" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="F5" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="G5" t="s" s="0">
-        <v>9</v>
-      </c>
-      <c r="H5" t="s" s="0">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" ht="15.0" customHeight="true">
-      <c r="A6" t="s" s="0">
+      <c r="B6" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="F6" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="G6" t="s" s="0">
         <v>11</v>
-      </c>
-      <c r="B6" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="C6" t="s" s="0">
-        <v>13</v>
-      </c>
-      <c r="D6" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="E6" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="F6" t="s" s="0">
-        <v>16</v>
-      </c>
-      <c r="G6" t="s" s="0">
-        <v>17</v>
       </c>
       <c r="H6" t="s" s="0">
         <v>18</v>
@@ -713,10 +731,10 @@
     </row>
     <row r="7" ht="15.0" customHeight="true">
       <c r="A7" t="s" s="0">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s" s="0">
         <v>20</v>
@@ -739,59 +757,59 @@
     </row>
     <row r="8" ht="15.0" customHeight="true">
       <c r="A8" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="B8" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="B8" t="s" s="0">
+      <c r="C8" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="C8" t="s" s="0">
+      <c r="E8" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="D8" t="s" s="0">
+      <c r="F8" t="s" s="0">
         <v>29</v>
       </c>
-      <c r="E8" t="s" s="0">
+      <c r="G8" t="s" s="0">
         <v>30</v>
       </c>
-      <c r="F8" t="s" s="0">
+      <c r="H8" t="s" s="0">
         <v>31</v>
-      </c>
-      <c r="G8" t="s" s="0">
-        <v>9</v>
-      </c>
-      <c r="H8" t="s" s="0">
-        <v>25</v>
       </c>
     </row>
     <row r="9" ht="15.0" customHeight="true">
       <c r="A9" t="s" s="0">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E9" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F9" t="s" s="0">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G9" t="s" s="0">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H9" t="s" s="0">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" ht="15.0" customHeight="true">
       <c r="A10" t="s" s="0">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B10" t="s" s="0">
         <v>38</v>
@@ -803,126 +821,154 @@
         <v>40</v>
       </c>
       <c r="E10" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="F10" t="s" s="0">
         <v>41</v>
       </c>
-      <c r="F10" t="s" s="0">
+      <c r="G10" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="H10" t="s" s="0">
         <v>42</v>
-      </c>
-      <c r="G10" t="s" s="0">
-        <v>9</v>
-      </c>
-      <c r="H10" t="s" s="0">
-        <v>43</v>
       </c>
     </row>
     <row r="11" ht="15.0" customHeight="true">
       <c r="A11" t="s" s="0">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B11" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="C11" t="s" s="0">
         <v>44</v>
       </c>
-      <c r="C11" t="s" s="0">
+      <c r="D11" t="s" s="0">
         <v>45</v>
       </c>
-      <c r="D11" t="s" s="0">
+      <c r="E11" t="s" s="0">
         <v>46</v>
       </c>
-      <c r="E11" t="s" s="0">
+      <c r="F11" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="G11" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="H11" t="s" s="0">
         <v>47</v>
-      </c>
-      <c r="F11" t="s" s="0">
-        <v>48</v>
-      </c>
-      <c r="G11" t="s" s="0">
-        <v>9</v>
-      </c>
-      <c r="H11" t="s" s="0">
-        <v>49</v>
       </c>
     </row>
     <row r="12" ht="15.0" customHeight="true">
       <c r="A12" t="s" s="0">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B12" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="C12" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="D12" t="s" s="0">
         <v>50</v>
       </c>
-      <c r="C12" t="s" s="0">
+      <c r="E12" t="s" s="0">
         <v>51</v>
       </c>
-      <c r="D12" t="s" s="0">
+      <c r="F12" t="s" s="0">
         <v>52</v>
       </c>
-      <c r="E12" t="s" s="0">
+      <c r="G12" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="H12" t="s" s="0">
         <v>53</v>
-      </c>
-      <c r="F12" t="s" s="0">
-        <v>54</v>
-      </c>
-      <c r="G12" t="s" s="0">
-        <v>9</v>
-      </c>
-      <c r="H12" t="s" s="0">
-        <v>55</v>
       </c>
     </row>
     <row r="13" ht="15.0" customHeight="true">
       <c r="A13" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="C13" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="D13" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="E13" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="F13" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="G13" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="B13" t="s" s="0">
-        <v>56</v>
-      </c>
-      <c r="C13" t="s" s="0">
-        <v>57</v>
-      </c>
-      <c r="D13" t="s" s="0">
-        <v>58</v>
-      </c>
-      <c r="E13" t="s" s="0">
-        <v>59</v>
-      </c>
-      <c r="F13" t="s" s="0">
-        <v>60</v>
-      </c>
-      <c r="G13" t="s" s="0">
-        <v>9</v>
-      </c>
       <c r="H13" t="s" s="0">
-        <v>61</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" ht="15.0" customHeight="true">
       <c r="A14" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="C14" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="D14" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="E14" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="F14" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="G14" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="B14" t="s" s="0">
-        <v>62</v>
-      </c>
-      <c r="C14" t="s" s="0">
-        <v>63</v>
-      </c>
-      <c r="D14" t="s" s="0">
+      <c r="H14" t="s" s="0">
         <v>64</v>
       </c>
-      <c r="E14" t="s" s="0">
+    </row>
+    <row r="15" ht="15.0" customHeight="true">
+      <c r="A15" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="B15" t="s" s="0">
         <v>65</v>
       </c>
-      <c r="F14" t="s" s="0">
+      <c r="C15" t="s" s="0">
         <v>66</v>
       </c>
-      <c r="G14" t="s" s="0">
-        <v>9</v>
-      </c>
-      <c r="H14" t="s" s="0">
+      <c r="D15" t="s" s="0">
         <v>67</v>
       </c>
-    </row>
-    <row r="15" ht="15.0" customHeight="true"/>
+      <c r="E15" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="F15" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="G15" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="H15" t="s" s="0">
+        <v>70</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/target/classes/excel/readloocup_output.xlsx
+++ b/target/classes/excel/readloocup_output.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java\Workspace\ExcelFromXMLObject\src\main\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AB33A72-BEA9-46E5-BE31-F632F3B080D0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{153E5EE3-7AE7-455D-9654-28DA0DE0D7B0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1365" yWindow="2355" windowWidth="21600" windowHeight="11385" xr2:uid="{D048C21C-6F62-426E-A658-66B2421AE3F1}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="68">
   <si>
     <t>Lettura Scheda</t>
   </si>
@@ -42,208 +42,199 @@
     <t>${String}</t>
   </si>
   <si>
-    <t>Column1</t>
-  </si>
-  <si>
-    <t>Column2</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
     <t>005</t>
   </si>
   <si>
+    <t>001</t>
+  </si>
+  <si>
+    <t>002</t>
+  </si>
+  <si>
+    <t>1,1</t>
+  </si>
+  <si>
     <t>2,0</t>
   </si>
   <si>
+    <t>3,1</t>
+  </si>
+  <si>
+    <t>4,2</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13,4</t>
+  </si>
+  <si>
+    <t>14,1</t>
+  </si>
+  <si>
+    <t>35,0</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>121</t>
+  </si>
+  <si>
+    <t>-1,12</t>
+  </si>
+  <si>
+    <t>-2,13</t>
+  </si>
+  <si>
     <t>-3,14</t>
   </si>
   <si>
-    <t>4-</t>
+    <t>-4,15</t>
+  </si>
+  <si>
+    <t>-12,16</t>
+  </si>
+  <si>
+    <t>-13,00</t>
+  </si>
+  <si>
+    <t>-14,01</t>
+  </si>
+  <si>
+    <t>-35,02</t>
+  </si>
+  <si>
+    <t>-55,03</t>
+  </si>
+  <si>
+    <t>-121,0</t>
+  </si>
+  <si>
+    <t>-1,05</t>
+  </si>
+  <si>
+    <t>-2,5</t>
+  </si>
+  <si>
+    <t>-3</t>
+  </si>
+  <si>
+    <t>-4</t>
+  </si>
+  <si>
+    <t>-12</t>
+  </si>
+  <si>
+    <t>-13</t>
+  </si>
+  <si>
+    <t>-14</t>
+  </si>
+  <si>
+    <t>-35</t>
+  </si>
+  <si>
+    <t>-55</t>
+  </si>
+  <si>
+    <t>-121</t>
+  </si>
+  <si>
+    <t>1,102</t>
+  </si>
+  <si>
+    <t>2,100</t>
+  </si>
+  <si>
+    <t>-3,12541</t>
+  </si>
+  <si>
+    <t>4,40000</t>
   </si>
   <si>
     <t>12,12000</t>
   </si>
   <si>
+    <t>13.123.213,01200</t>
+  </si>
+  <si>
+    <t>1.123.114,49000</t>
+  </si>
+  <si>
+    <t>1.235,35900</t>
+  </si>
+  <si>
+    <t>9.955,00000</t>
+  </si>
+  <si>
+    <t>121,00000</t>
+  </si>
+  <si>
+    <t>FIOGIA</t>
+  </si>
+  <si>
+    <t>SANCOS</t>
+  </si>
+  <si>
+    <t>PARFRA</t>
+  </si>
+  <si>
+    <t>FORFED</t>
+  </si>
+  <si>
+    <t>BELQUI</t>
+  </si>
+  <si>
     <t>ROCMAT</t>
   </si>
   <si>
+    <t>MAEOLI</t>
+  </si>
+  <si>
+    <t>CARLUC</t>
+  </si>
+  <si>
+    <t>CASFRA</t>
+  </si>
+  <si>
+    <t>DELGIO</t>
+  </si>
+  <si>
     <t>01</t>
   </si>
   <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>33,3</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
     <t>1000</t>
   </si>
   <si>
-    <t>1,1</t>
-  </si>
-  <si>
-    <t>-1,12</t>
-  </si>
-  <si>
-    <t>-1,05</t>
-  </si>
-  <si>
-    <t>1,102</t>
-  </si>
-  <si>
-    <t>FIOGIA</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>001</t>
-  </si>
-  <si>
-    <t>-2,13</t>
-  </si>
-  <si>
-    <t>-2,5</t>
-  </si>
-  <si>
-    <t>2,100</t>
-  </si>
-  <si>
-    <t>SANCOS</t>
-  </si>
-  <si>
-    <t>02</t>
-  </si>
-  <si>
-    <t>33,3</t>
-  </si>
-  <si>
-    <t>3,1</t>
-  </si>
-  <si>
-    <t>-3</t>
-  </si>
-  <si>
-    <t>-3,12541</t>
-  </si>
-  <si>
-    <t>PARFRA</t>
-  </si>
-  <si>
-    <t>03</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>002</t>
-  </si>
-  <si>
-    <t>4,2</t>
-  </si>
-  <si>
-    <t>-4,15</t>
-  </si>
-  <si>
-    <t>-4</t>
-  </si>
-  <si>
-    <t>4,40000</t>
-  </si>
-  <si>
-    <t>FORFED</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>-12,16</t>
-  </si>
-  <si>
-    <t>-12</t>
-  </si>
-  <si>
-    <t>BELQUI</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>13,4</t>
-  </si>
-  <si>
-    <t>-13,00</t>
-  </si>
-  <si>
-    <t>-13</t>
-  </si>
-  <si>
-    <t>13.123.213,01200</t>
-  </si>
-  <si>
-    <t>66</t>
-  </si>
-  <si>
-    <t>14,1</t>
-  </si>
-  <si>
-    <t>-14,01</t>
-  </si>
-  <si>
-    <t>-14</t>
-  </si>
-  <si>
-    <t>1.123.114,49000</t>
-  </si>
-  <si>
-    <t>MAEOLI</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>35,0</t>
-  </si>
-  <si>
-    <t>-35,02</t>
-  </si>
-  <si>
-    <t>-35</t>
-  </si>
-  <si>
-    <t>1.235,35900</t>
-  </si>
-  <si>
-    <t>CARLUC</t>
-  </si>
-  <si>
-    <t>55</t>
-  </si>
-  <si>
-    <t>-55,03</t>
-  </si>
-  <si>
-    <t>-55</t>
-  </si>
-  <si>
-    <t>9.955,00000</t>
-  </si>
-  <si>
-    <t>CASFRA</t>
-  </si>
-  <si>
     <t>55,22</t>
-  </si>
-  <si>
-    <t>121</t>
-  </si>
-  <si>
-    <t>-121,0</t>
-  </si>
-  <si>
-    <t>-121</t>
-  </si>
-  <si>
-    <t>121,00000</t>
-  </si>
-  <si>
-    <t>DELGIO</t>
   </si>
   <si>
     <t>20,11</t>
@@ -304,7 +295,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -312,13 +303,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -334,17 +341,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{97545357-5703-40BA-8A68-9D9A4D1667C2}" name="Table3" displayName="Table3" ref="A5:B15" totalsRowShown="0">
-  <autoFilter ref="A5:B6" xr:uid="{E84FFCB2-D86E-4E22-9505-1DF7641403AA}"/>
-  <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{C93CBB3D-9A64-445C-807B-16FF0530B2BE}" name="Column1"/>
-    <tableColumn id="2" xr3:uid="{A3840DA8-52D5-4439-9C7E-96D4676E7D78}" name="Column2"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -644,331 +640,294 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45E2D85D-9821-44E9-A51E-F7E15C655787}">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="25.0" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" width="25.0" collapsed="false"/>
+    <col min="2" max="2" width="25.0" customWidth="true"/>
     <col min="3" max="3" width="25.0" customWidth="true"/>
     <col min="4" max="4" width="25.0" customWidth="true"/>
     <col min="5" max="5" width="25.0" customWidth="true"/>
     <col min="6" max="6" width="25.0" customWidth="true"/>
     <col min="7" max="7" width="25.0" customWidth="true"/>
     <col min="8" max="8" width="25.0" customWidth="true"/>
+    <col min="9" max="9" width="25.0" customWidth="true"/>
+    <col min="10" max="10" width="25.0" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="26.25" x14ac:dyDescent="0.4" customHeight="true">
+    <row r="1" spans="1:1" ht="26.25" x14ac:dyDescent="0.4" customHeight="true">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" ht="15.0" customHeight="true"/>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25" ht="15.0" customHeight="true">
-      <c r="A3" s="0" t="s">
+    <row r="3" ht="15.0" customHeight="true"/>
+    <row r="4" ht="15.0" customHeight="true"/>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25" ht="15.0" customHeight="true">
+      <c r="A5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s" s="2">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s" s="2">
         <v>5</v>
       </c>
-      <c r="B3" t="s" s="0">
+      <c r="E5" t="s" s="2">
+        <v>5</v>
+      </c>
+      <c r="F5" t="s" s="2">
+        <v>5</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>5</v>
+      </c>
+      <c r="H5" t="s" s="2">
+        <v>5</v>
+      </c>
+      <c r="I5" t="s" s="2">
+        <v>4</v>
+      </c>
+      <c r="J5" t="s" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" ht="15.0" customHeight="true">
+      <c r="A6" t="s" s="2">
         <v>6</v>
       </c>
-      <c r="C3" t="s" s="0">
+      <c r="B6" t="s" s="2">
         <v>7</v>
       </c>
-      <c r="D3" t="s" s="0">
+      <c r="C6" t="s" s="2">
         <v>8</v>
       </c>
-      <c r="E3" t="s" s="0">
+      <c r="D6" t="s" s="2">
         <v>9</v>
       </c>
-      <c r="F3" t="s" s="0">
+      <c r="E6" t="s" s="2">
         <v>10</v>
       </c>
-      <c r="G3" t="s" s="0">
+      <c r="F6" t="s" s="2">
         <v>11</v>
       </c>
-      <c r="H3" t="s" s="0">
+      <c r="G6" t="s" s="2">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" ht="15.0" customHeight="true"/>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25" ht="15.0" customHeight="true">
-      <c r="A5" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25" ht="15.0" customHeight="true">
-      <c r="A6" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s" s="0">
+      <c r="H6" t="s" s="2">
         <v>13</v>
       </c>
-      <c r="C6" t="s" s="0">
+      <c r="I6" t="s" s="2">
         <v>14</v>
       </c>
-      <c r="D6" t="s" s="0">
+      <c r="J6" t="s" s="2">
         <v>15</v>
-      </c>
-      <c r="E6" t="s" s="0">
-        <v>16</v>
-      </c>
-      <c r="F6" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="G6" t="s" s="0">
-        <v>11</v>
-      </c>
-      <c r="H6" t="s" s="0">
-        <v>18</v>
       </c>
     </row>
     <row r="7" ht="15.0" customHeight="true">
-      <c r="A7" t="s" s="0">
+      <c r="A7" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s" s="2">
         <v>19</v>
       </c>
-      <c r="B7" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="C7" t="s" s="0">
+      <c r="E7" t="s" s="2">
         <v>20</v>
       </c>
-      <c r="D7" t="s" s="0">
+      <c r="F7" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="E7" t="s" s="0">
+      <c r="G7" t="s" s="2">
         <v>22</v>
       </c>
-      <c r="F7" t="s" s="0">
+      <c r="H7" t="s" s="2">
         <v>23</v>
       </c>
-      <c r="G7" t="s" s="0">
+      <c r="I7" t="s" s="2">
         <v>24</v>
       </c>
-      <c r="H7" t="s" s="0">
+      <c r="J7" t="s" s="2">
         <v>25</v>
       </c>
     </row>
     <row r="8" ht="15.0" customHeight="true">
-      <c r="A8" t="s" s="0">
-        <v>19</v>
-      </c>
-      <c r="B8" t="s" s="0">
+      <c r="A8" t="s" s="2">
         <v>26</v>
       </c>
-      <c r="C8" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="D8" t="s" s="0">
+      <c r="B8" t="s" s="2">
         <v>27</v>
       </c>
-      <c r="E8" t="s" s="0">
+      <c r="C8" t="s" s="2">
         <v>28</v>
       </c>
-      <c r="F8" t="s" s="0">
+      <c r="D8" t="s" s="2">
         <v>29</v>
       </c>
-      <c r="G8" t="s" s="0">
+      <c r="E8" t="s" s="2">
         <v>30</v>
       </c>
-      <c r="H8" t="s" s="0">
+      <c r="F8" t="s" s="2">
         <v>31</v>
+      </c>
+      <c r="G8" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="H8" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="I8" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="J8" t="s" s="2">
+        <v>35</v>
       </c>
     </row>
     <row r="9" ht="15.0" customHeight="true">
-      <c r="A9" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="B9" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="C9" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="D9" t="s" s="0">
-        <v>35</v>
-      </c>
-      <c r="E9" t="s" s="0">
+      <c r="A9" t="s" s="2">
         <v>36</v>
       </c>
-      <c r="F9" t="s" s="0">
+      <c r="B9" t="s" s="2">
         <v>37</v>
       </c>
-      <c r="G9" t="s" s="0">
-        <v>11</v>
-      </c>
-      <c r="H9" t="s" s="0">
-        <v>31</v>
+      <c r="C9" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D9" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E9" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F9" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G9" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H9" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I9" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J9" t="s" s="2">
+        <v>45</v>
       </c>
     </row>
     <row r="10" ht="15.0" customHeight="true">
-      <c r="A10" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="B10" t="s" s="0">
-        <v>38</v>
-      </c>
-      <c r="C10" t="s" s="0">
-        <v>39</v>
-      </c>
-      <c r="D10" t="s" s="0">
-        <v>40</v>
-      </c>
-      <c r="E10" t="s" s="0">
-        <v>9</v>
-      </c>
-      <c r="F10" t="s" s="0">
-        <v>41</v>
-      </c>
-      <c r="G10" t="s" s="0">
-        <v>11</v>
-      </c>
-      <c r="H10" t="s" s="0">
-        <v>42</v>
+      <c r="A10" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="D10" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="E10" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="F10" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G10" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="H10" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="I10" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="J10" t="s" s="2">
+        <v>55</v>
       </c>
     </row>
     <row r="11" ht="15.0" customHeight="true">
-      <c r="A11" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="B11" t="s" s="0">
-        <v>43</v>
-      </c>
-      <c r="C11" t="s" s="0">
-        <v>44</v>
-      </c>
-      <c r="D11" t="s" s="0">
-        <v>45</v>
-      </c>
-      <c r="E11" t="s" s="0">
-        <v>46</v>
-      </c>
-      <c r="F11" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="G11" t="s" s="0">
-        <v>11</v>
-      </c>
-      <c r="H11" t="s" s="0">
-        <v>47</v>
+      <c r="A11" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="C11" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="D11" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="E11" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="F11" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="G11" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="H11" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="I11" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="J11" t="s" s="2">
+        <v>56</v>
       </c>
     </row>
     <row r="12" ht="15.0" customHeight="true">
-      <c r="A12" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="B12" t="s" s="0">
-        <v>48</v>
-      </c>
-      <c r="C12" t="s" s="0">
-        <v>49</v>
-      </c>
-      <c r="D12" t="s" s="0">
-        <v>50</v>
-      </c>
-      <c r="E12" t="s" s="0">
-        <v>51</v>
-      </c>
-      <c r="F12" t="s" s="0">
-        <v>52</v>
-      </c>
-      <c r="G12" t="s" s="0">
-        <v>11</v>
-      </c>
-      <c r="H12" t="s" s="0">
-        <v>53</v>
+      <c r="A12" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="C12" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="D12" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="E12" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="F12" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="G12" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="H12" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="I12" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="J12" t="s" s="2">
+        <v>67</v>
       </c>
     </row>
-    <row r="13" ht="15.0" customHeight="true">
-      <c r="A13" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="B13" t="s" s="0">
-        <v>54</v>
-      </c>
-      <c r="C13" t="s" s="0">
-        <v>55</v>
-      </c>
-      <c r="D13" t="s" s="0">
-        <v>56</v>
-      </c>
-      <c r="E13" t="s" s="0">
-        <v>57</v>
-      </c>
-      <c r="F13" t="s" s="0">
-        <v>58</v>
-      </c>
-      <c r="G13" t="s" s="0">
-        <v>11</v>
-      </c>
-      <c r="H13" t="s" s="0">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" ht="15.0" customHeight="true">
-      <c r="A14" t="s" s="0">
-        <v>19</v>
-      </c>
-      <c r="B14" t="s" s="0">
-        <v>59</v>
-      </c>
-      <c r="C14" t="s" s="0">
-        <v>60</v>
-      </c>
-      <c r="D14" t="s" s="0">
-        <v>61</v>
-      </c>
-      <c r="E14" t="s" s="0">
-        <v>62</v>
-      </c>
-      <c r="F14" t="s" s="0">
-        <v>63</v>
-      </c>
-      <c r="G14" t="s" s="0">
-        <v>11</v>
-      </c>
-      <c r="H14" t="s" s="0">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="15" ht="15.0" customHeight="true">
-      <c r="A15" t="s" s="0">
-        <v>19</v>
-      </c>
-      <c r="B15" t="s" s="0">
-        <v>65</v>
-      </c>
-      <c r="C15" t="s" s="0">
-        <v>66</v>
-      </c>
-      <c r="D15" t="s" s="0">
-        <v>67</v>
-      </c>
-      <c r="E15" t="s" s="0">
-        <v>68</v>
-      </c>
-      <c r="F15" t="s" s="0">
-        <v>69</v>
-      </c>
-      <c r="G15" t="s" s="0">
-        <v>11</v>
-      </c>
-      <c r="H15" t="s" s="0">
-        <v>70</v>
-      </c>
-    </row>
+    <row r="13" ht="15.0" customHeight="true"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
-  <tableParts count="1">
-    <tablePart r:id="rId3"/>
-  </tableParts>
 </worksheet>
 </file>
--- a/target/classes/excel/readloocup_output.xlsx
+++ b/target/classes/excel/readloocup_output.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java\Workspace\ExcelFromXMLObject\src\main\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{153E5EE3-7AE7-455D-9654-28DA0DE0D7B0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00B261D8-515A-4A05-94D9-EA2A00F935A8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1365" yWindow="2355" windowWidth="21600" windowHeight="11385" xr2:uid="{D048C21C-6F62-426E-A658-66B2421AE3F1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D048C21C-6F62-426E-A658-66B2421AE3F1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1568" uniqueCount="119">
   <si>
     <t>Lettura Scheda</t>
   </si>
@@ -45,199 +45,361 @@
     <t/>
   </si>
   <si>
-    <t>005</t>
-  </si>
-  <si>
-    <t>001</t>
-  </si>
-  <si>
-    <t>002</t>
-  </si>
-  <si>
-    <t>1,1</t>
-  </si>
-  <si>
-    <t>2,0</t>
-  </si>
-  <si>
-    <t>3,1</t>
-  </si>
-  <si>
-    <t>4,2</t>
+    <t>0000000072</t>
+  </si>
+  <si>
+    <t>0000000073</t>
+  </si>
+  <si>
+    <t>0000000074</t>
+  </si>
+  <si>
+    <t>0000000075</t>
+  </si>
+  <si>
+    <t>0000000076</t>
+  </si>
+  <si>
+    <t>0000000078</t>
+  </si>
+  <si>
+    <t>0000000080</t>
+  </si>
+  <si>
+    <t>0000000084</t>
+  </si>
+  <si>
+    <t>0000000085</t>
+  </si>
+  <si>
+    <t>0000000087</t>
+  </si>
+  <si>
+    <t>0000000088</t>
+  </si>
+  <si>
+    <t>0000000090</t>
+  </si>
+  <si>
+    <t>0000000091</t>
+  </si>
+  <si>
+    <t>0000000092</t>
+  </si>
+  <si>
+    <t>0000000093</t>
+  </si>
+  <si>
+    <t>0000000094</t>
+  </si>
+  <si>
+    <t>0000000095</t>
+  </si>
+  <si>
+    <t>0000000096</t>
+  </si>
+  <si>
+    <t>0000000097</t>
+  </si>
+  <si>
+    <t>0000000098</t>
+  </si>
+  <si>
+    <t>0000000099</t>
+  </si>
+  <si>
+    <t>0000000100</t>
+  </si>
+  <si>
+    <t>0000000101</t>
+  </si>
+  <si>
+    <t>0000000102</t>
+  </si>
+  <si>
+    <t>0000000103</t>
+  </si>
+  <si>
+    <t>0000000104</t>
+  </si>
+  <si>
+    <t>0000000105</t>
+  </si>
+  <si>
+    <t>0000000106</t>
+  </si>
+  <si>
+    <t>0000000107</t>
+  </si>
+  <si>
+    <t>0000000108</t>
+  </si>
+  <si>
+    <t>LO</t>
+  </si>
+  <si>
+    <t>WE</t>
+  </si>
+  <si>
+    <t>MO</t>
+  </si>
+  <si>
+    <t>Loocup</t>
+  </si>
+  <si>
+    <t>Webup</t>
+  </si>
+  <si>
+    <t>Mobile</t>
+  </si>
+  <si>
+    <t>SANCOS</t>
+  </si>
+  <si>
+    <t>CASFRA</t>
+  </si>
+  <si>
+    <t>MINCLA</t>
+  </si>
+  <si>
+    <t>FEDROB</t>
+  </si>
+  <si>
+    <t>DELGIO</t>
+  </si>
+  <si>
+    <t>FIOGIA</t>
+  </si>
+  <si>
+    <t>CARLUC</t>
+  </si>
+  <si>
+    <t>MARAND</t>
+  </si>
+  <si>
+    <t>MAEOLI</t>
+  </si>
+  <si>
+    <t>PARFRA</t>
+  </si>
+  <si>
+    <t>FORFED</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>Configuratore : aiutare Federico sulla definizione del protocollo aggiornamento.</t>
+  </si>
+  <si>
+    <t>booleanButton: in mobile non esiste questo componente</t>
+  </si>
+  <si>
+    <t>In mobile, css da modificare:
+spinner (SPN)
+slider (SLD)
+radiobutton (RAD)
+checkboxlist (CHL)
+immagine (IMG)
+rating (RTG)
+range (RNG)
+button colore default (BTN)</t>
+  </si>
+  <si>
+    <t>controllare quali field non hanno il p:ajax</t>
+  </si>
+  <si>
+    <t>signature: in mobile non viene renderizzato (e neanche in web)</t>
+  </si>
+  <si>
+    <t>Graphcomp selectManyMenu: in mobile viene na schifezza</t>
+  </si>
+  <si>
+    <t>Lavori sui graphcomp (vedi allegato)</t>
+  </si>
+  <si>
+    <t>Immagini store e descrizione da aggiornare (apple e google)</t>
+  </si>
+  <si>
+    <t>Per i B2B potrebbe essere necessaria una paginetta che sostituisca la login quando il sistema non è attivo (Es. manutenzione provider, ecc..) Segnalato da Seven Diesel</t>
+  </si>
+  <si>
+    <t>formulas (matrice). Fatte due schede d'esempio, manca l'implementazione web. Vedere classi (SmeupFormulaSolver) Loocup in progetto SmeDevSVN</t>
+  </si>
+  <si>
+    <t>configuratore (compresa la ricorsione, di cui abbiamo creato un esempio).</t>
+  </si>
+  <si>
+    <t>verificare dinamismi al close</t>
+  </si>
+  <si>
+    <t>verificare differenze vecchia/nuova matrice mobile</t>
+  </si>
+  <si>
+    <t>scovare (e risolvere) memory leak delphi. In alternativa, decidere se ha senso fregrarsene</t>
+  </si>
+  <si>
+    <t>SPC: verificare errori segnalati da Roberta Colombo (vedi email). Prima di tutto riprendere in mano il componente a studiarne il funzionamento.
+Dobbiamo dare una risposta il prima possibile. C'è il cliente sul piede di guerra, minaccia di prendere un'altra soluzione.</t>
+  </si>
+  <si>
+    <t>leggere dimensioni scheda da setup e usarle nei dialog. Confrontarsi con Claudio per decidere come mettere le suddette dimensioni nella pagina.</t>
+  </si>
+  <si>
+    <t>rendere la scheda task utilizzabile da mobile</t>
+  </si>
+  <si>
+    <t>ridiscutere MDV con Silvio e Mauro, rispetto a quanto ci siamo detti sull'implementazione "finale". In alternativa andare di implementazione base, con iupopup che gestiscono una tendina (leaf=Din)</t>
+  </si>
+  <si>
+    <t>Provider: gestire le A() cieche, sia quelle che non rispondono che quelle che rispondono con una action di tipo F()</t>
+  </si>
+  <si>
+    <t>Provider su linux:  Creare progetto su SVN. Creare progetto eclipse sulla vm linux creata da gianluca e farlo partire come webapp. Iniziare con i test sulle cartelle.</t>
+  </si>
+  <si>
+    <t>problemi css da mail di Stefano Lancini</t>
+  </si>
+  <si>
+    <t>ottimizzazione inputpanel: caricare combo lazy</t>
+  </si>
+  <si>
+    <t>Insert e Delete in input panel non sono tradotti!</t>
+  </si>
+  <si>
+    <t>CSS per dimensionamento dei dialog: come dobbiamo modificare la parte jsf per impostarlo leggendolo dalla scheda? E il default quale deve essere?</t>
+  </si>
+  <si>
+    <t>modificare box progetto in task</t>
+  </si>
+  <si>
+    <t>aggiungere ai box dei task la priorità</t>
+  </si>
+  <si>
+    <t>mobile verificare colorPicker, editor (OK), listbox (mobile NO, webup NO con checkbox + problemi ctrl in mac)</t>
+  </si>
+  <si>
+    <t>validare implementazione di *CHECK</t>
+  </si>
+  <si>
+    <t>Rivedere in toto le procedure rilascio loocup</t>
+  </si>
+  <si>
+    <t>deviare ja_00_ cartelle e file nel caso di j8 e j9</t>
+  </si>
+  <si>
+    <t>WU3_01</t>
+  </si>
+  <si>
+    <t>KLKLKLK</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/document/d/17ClkDi_VNQH93mld-gPUJ112f17P_rmef1mk4lFQkC8/edit</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/document/d/1Sud3aZ_qKknlbsrLTmAH16Tl-Bgcn0385_LbDmU-Zq4/edit?usp=sharing</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
   </si>
   <si>
     <t>12</t>
   </si>
   <si>
-    <t>13,4</t>
-  </si>
-  <si>
-    <t>14,1</t>
-  </si>
-  <si>
-    <t>35,0</t>
-  </si>
-  <si>
-    <t>55</t>
-  </si>
-  <si>
-    <t>121</t>
-  </si>
-  <si>
-    <t>-1,12</t>
-  </si>
-  <si>
-    <t>-2,13</t>
-  </si>
-  <si>
-    <t>-3,14</t>
-  </si>
-  <si>
-    <t>-4,15</t>
-  </si>
-  <si>
-    <t>-12,16</t>
-  </si>
-  <si>
-    <t>-13,00</t>
-  </si>
-  <si>
-    <t>-14,01</t>
-  </si>
-  <si>
-    <t>-35,02</t>
-  </si>
-  <si>
-    <t>-55,03</t>
-  </si>
-  <si>
-    <t>-121,0</t>
-  </si>
-  <si>
-    <t>-1,05</t>
-  </si>
-  <si>
-    <t>-2,5</t>
-  </si>
-  <si>
-    <t>-3</t>
-  </si>
-  <si>
-    <t>-4</t>
-  </si>
-  <si>
-    <t>-12</t>
-  </si>
-  <si>
-    <t>-13</t>
-  </si>
-  <si>
-    <t>-14</t>
-  </si>
-  <si>
-    <t>-35</t>
-  </si>
-  <si>
-    <t>-55</t>
-  </si>
-  <si>
-    <t>-121</t>
-  </si>
-  <si>
-    <t>1,102</t>
-  </si>
-  <si>
-    <t>2,100</t>
-  </si>
-  <si>
-    <t>-3,12541</t>
-  </si>
-  <si>
-    <t>4,40000</t>
-  </si>
-  <si>
-    <t>12,12000</t>
-  </si>
-  <si>
-    <t>13.123.213,01200</t>
-  </si>
-  <si>
-    <t>1.123.114,49000</t>
-  </si>
-  <si>
-    <t>1.235,35900</t>
-  </si>
-  <si>
-    <t>9.955,00000</t>
-  </si>
-  <si>
-    <t>121,00000</t>
-  </si>
-  <si>
-    <t>FIOGIA</t>
-  </si>
-  <si>
-    <t>SANCOS</t>
-  </si>
-  <si>
-    <t>PARFRA</t>
-  </si>
-  <si>
-    <t>FORFED</t>
-  </si>
-  <si>
-    <t>BELQUI</t>
-  </si>
-  <si>
-    <t>ROCMAT</t>
-  </si>
-  <si>
-    <t>MAEOLI</t>
-  </si>
-  <si>
-    <t>CARLUC</t>
-  </si>
-  <si>
-    <t>CASFRA</t>
-  </si>
-  <si>
-    <t>DELGIO</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>02</t>
-  </si>
-  <si>
-    <t>03</t>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
   </si>
   <si>
     <t>20</t>
   </si>
   <si>
-    <t>33,3</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>66</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>1000</t>
-  </si>
-  <si>
-    <t>55,22</t>
-  </si>
-  <si>
-    <t>20,11</t>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>30</t>
   </si>
 </sst>
 </file>
@@ -640,10 +802,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45E2D85D-9821-44E9-A51E-F7E15C655787}">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:AD35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -658,6 +820,26 @@
     <col min="8" max="8" width="25.0" customWidth="true"/>
     <col min="9" max="9" width="25.0" customWidth="true"/>
     <col min="10" max="10" width="25.0" customWidth="true"/>
+    <col min="11" max="11" width="25.0" customWidth="true"/>
+    <col min="12" max="12" width="25.0" customWidth="true"/>
+    <col min="13" max="13" width="25.0" customWidth="true"/>
+    <col min="14" max="14" width="25.0" customWidth="true"/>
+    <col min="15" max="15" width="25.0" customWidth="true"/>
+    <col min="16" max="16" width="25.0" customWidth="true"/>
+    <col min="17" max="17" width="25.0" customWidth="true"/>
+    <col min="18" max="18" width="25.0" customWidth="true"/>
+    <col min="19" max="19" width="25.0" customWidth="true"/>
+    <col min="20" max="20" width="25.0" customWidth="true"/>
+    <col min="21" max="21" width="25.0" customWidth="true"/>
+    <col min="22" max="22" width="25.0" customWidth="true"/>
+    <col min="23" max="23" width="25.0" customWidth="true"/>
+    <col min="24" max="24" width="25.0" customWidth="true"/>
+    <col min="25" max="25" width="25.0" customWidth="true"/>
+    <col min="26" max="26" width="25.0" customWidth="true"/>
+    <col min="27" max="27" width="25.0" customWidth="true"/>
+    <col min="28" max="28" width="25.0" customWidth="true"/>
+    <col min="29" max="29" width="25.0" customWidth="true"/>
+    <col min="30" max="30" width="25.0" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="26.25" x14ac:dyDescent="0.4" customHeight="true">
@@ -673,258 +855,2762 @@
         <v>3</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="D5" t="s" s="2">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="E5" t="s" s="2">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="K5" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="L5" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="M5" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="N5" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="O5" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="P5" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="Q5" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="R5" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="S5" t="n" s="2">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="T5" t="n" s="2">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="U5" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="V5" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="W5" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="X5" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="Y5" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="Z5" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AA5" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="AB5" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="AC5" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AD5" t="s" s="2">
+        <v>89</v>
       </c>
     </row>
     <row r="6" ht="15.0" customHeight="true">
       <c r="A6" t="s" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s" s="2">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="D6" t="s" s="2">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="E6" t="s" s="2">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>15</v>
+        <v>2</v>
+      </c>
+      <c r="K6" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="L6" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="M6" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="N6" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="O6" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="P6" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="Q6" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="R6" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="S6" t="n" s="2">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="T6" t="n" s="2">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="U6" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="V6" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="W6" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="X6" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="Y6" t="n" s="2">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="Z6" t="n" s="2">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>90</v>
       </c>
     </row>
     <row r="7" ht="15.0" customHeight="true">
       <c r="A7" t="s" s="2">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s" s="2">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="D7" t="s" s="2">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="E7" t="s" s="2">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>25</v>
+        <v>2</v>
+      </c>
+      <c r="K7" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="L7" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="M7" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="N7" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="O7" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="P7" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="Q7" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="R7" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="S7" t="n" s="2">
+        <v>2.0160301E7</v>
+      </c>
+      <c r="T7" t="n" s="2">
+        <v>2.0160301E7</v>
+      </c>
+      <c r="U7" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="V7" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="W7" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="X7" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="Y7" t="n" s="2">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="Z7" t="n" s="2">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="AA7" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="AB7" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="AC7" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AD7" t="s" s="2">
+        <v>91</v>
       </c>
     </row>
     <row r="8" ht="15.0" customHeight="true">
       <c r="A8" t="s" s="2">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="C8" t="s" s="2">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D8" t="s" s="2">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="E8" t="s" s="2">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>34</v>
+        <v>2</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>35</v>
+        <v>2</v>
+      </c>
+      <c r="K8" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="L8" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="M8" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="N8" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="O8" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="P8" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="Q8" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="R8" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="S8" t="n" s="2">
+        <v>2.016021E7</v>
+      </c>
+      <c r="T8" t="n" s="2">
+        <v>2.016021E7</v>
+      </c>
+      <c r="U8" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="V8" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="W8" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="X8" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="Y8" t="n" s="2">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="Z8" t="n" s="2">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="AA8" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="AB8" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="AC8" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AD8" t="s" s="2">
+        <v>92</v>
       </c>
     </row>
     <row r="9" ht="15.0" customHeight="true">
       <c r="A9" t="s" s="2">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s" s="2">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="D9" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="E9" t="s" s="2">
         <v>37</v>
       </c>
-      <c r="C9" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="D9" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="E9" t="s" s="2">
-        <v>40</v>
-      </c>
       <c r="F9" t="s" s="2">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>44</v>
+        <v>2</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>45</v>
+        <v>2</v>
+      </c>
+      <c r="K9" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="L9" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="M9" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="N9" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="O9" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="P9" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="Q9" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="R9" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="S9" t="n" s="2">
+        <v>2.0160222E7</v>
+      </c>
+      <c r="T9" t="n" s="2">
+        <v>2.0160222E7</v>
+      </c>
+      <c r="U9" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="V9" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="W9" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="X9" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="Y9" t="n" s="2">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="Z9" t="n" s="2">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="AA9" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="AB9" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="AC9" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AD9" t="s" s="2">
+        <v>93</v>
       </c>
     </row>
     <row r="10" ht="15.0" customHeight="true">
       <c r="A10" t="s" s="2">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="D10" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="E10" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F10" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="G10" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H10" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I10" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="J10" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="K10" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="L10" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="M10" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="N10" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="O10" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="P10" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="Q10" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="R10" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="S10" t="n" s="2">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="T10" t="n" s="2">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="U10" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="V10" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="W10" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="D10" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="E10" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="F10" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G10" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="H10" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="I10" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="J10" t="s" s="2">
-        <v>55</v>
+      <c r="X10" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="Y10" t="n" s="2">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="Z10" t="n" s="2">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="AA10" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="AB10" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="AC10" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AD10" t="s" s="2">
+        <v>94</v>
       </c>
     </row>
     <row r="11" ht="15.0" customHeight="true">
       <c r="A11" t="s" s="2">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>57</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="D11" t="s" s="2">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="E11" t="s" s="2">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>56</v>
+        <v>2</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>56</v>
+        <v>2</v>
+      </c>
+      <c r="K11" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="L11" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="M11" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="N11" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="O11" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="P11" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="Q11" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="R11" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="S11" t="n" s="2">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="T11" t="n" s="2">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="U11" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="V11" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="W11" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="X11" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="Y11" t="n" s="2">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="Z11" t="n" s="2">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="AA11" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AB11" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AC11" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AD11" t="s" s="2">
+        <v>95</v>
       </c>
     </row>
     <row r="12" ht="15.0" customHeight="true">
       <c r="A12" t="s" s="2">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="D12" t="s" s="2">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="E12" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F12" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="G12" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H12" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I12" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="J12" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="K12" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="L12" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="M12" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="N12" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="O12" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="P12" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="Q12" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="R12" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="S12" t="n" s="2">
+        <v>2.0160205E7</v>
+      </c>
+      <c r="T12" t="n" s="2">
+        <v>2.0160205E7</v>
+      </c>
+      <c r="U12" t="s" s="2">
         <v>62</v>
       </c>
-      <c r="F12" t="s" s="2">
+      <c r="V12" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="W12" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="X12" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="Y12" t="n" s="2">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="Z12" t="n" s="2">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="AA12" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="AB12" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="AC12" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AD12" t="s" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="13" ht="15.0" customHeight="true">
+      <c r="A13" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="D13" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="E13" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F13" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="G13" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H13" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I13" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="J13" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="K13" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="L13" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="M13" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="N13" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="O13" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="P13" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="Q13" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="R13" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="S13" t="n" s="2">
+        <v>2.0160211E7</v>
+      </c>
+      <c r="T13" t="n" s="2">
+        <v>2.0160211E7</v>
+      </c>
+      <c r="U13" t="s" s="2">
         <v>63</v>
       </c>
-      <c r="G12" t="s" s="2">
+      <c r="V13" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="W13" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="X13" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="Y13" t="n" s="2">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="Z13" t="n" s="2">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="AA13" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="AB13" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="AC13" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AD13" t="s" s="2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14" ht="15.0" customHeight="true">
+      <c r="A14" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="C14" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="D14" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="E14" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F14" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="G14" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H14" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I14" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="J14" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="K14" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="L14" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="M14" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="N14" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="O14" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="P14" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="Q14" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="R14" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="S14" t="n" s="2">
+        <v>2.0160205E7</v>
+      </c>
+      <c r="T14" t="n" s="2">
+        <v>2.0160205E7</v>
+      </c>
+      <c r="U14" t="s" s="2">
         <v>64</v>
       </c>
-      <c r="H12" t="s" s="2">
+      <c r="V14" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="W14" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="X14" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="Y14" t="n" s="2">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="Z14" t="n" s="2">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="AA14" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AD14" t="s" s="2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="15" ht="15.0" customHeight="true">
+      <c r="A15" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="C15" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="D15" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="E15" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F15" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="G15" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I15" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="J15" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="K15" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="L15" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="M15" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="N15" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="O15" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="P15" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="Q15" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="R15" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="S15" t="n" s="2">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="T15" t="n" s="2">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="U15" t="s" s="2">
         <v>65</v>
       </c>
-      <c r="I12" t="s" s="2">
+      <c r="V15" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="W15" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="X15" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="Y15" t="n" s="2">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="Z15" t="n" s="2">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="AA15" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="AB15" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="AC15" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AD15" t="s" s="2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="16" ht="15.0" customHeight="true">
+      <c r="A16" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="C16" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="D16" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="E16" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F16" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="G16" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="I16" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="J16" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="K16" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="L16" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="M16" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="N16" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="O16" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="P16" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="Q16" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="R16" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="S16" t="n" s="2">
+        <v>2.0160205E7</v>
+      </c>
+      <c r="T16" t="n" s="2">
+        <v>2.0160205E7</v>
+      </c>
+      <c r="U16" t="s" s="2">
         <v>66</v>
       </c>
-      <c r="J12" t="s" s="2">
+      <c r="V16" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="W16" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="X16" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="Y16" t="n" s="2">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="Z16" t="n" s="2">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="AA16" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="AB16" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="AC16" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AD16" t="s" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" ht="15.0" customHeight="true">
+      <c r="A17" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="C17" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="D17" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="E17" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F17" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="G17" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="I17" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="J17" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="K17" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="L17" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="M17" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="N17" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="O17" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="P17" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="Q17" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="R17" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="S17" t="n" s="2">
+        <v>2.0160206E7</v>
+      </c>
+      <c r="T17" t="n" s="2">
+        <v>2.0160206E7</v>
+      </c>
+      <c r="U17" t="s" s="2">
         <v>67</v>
       </c>
+      <c r="V17" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="W17" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="X17" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="Y17" t="n" s="2">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="Z17" t="n" s="2">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="AA17" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AD17" t="s" s="2">
+        <v>101</v>
+      </c>
     </row>
-    <row r="13" ht="15.0" customHeight="true"/>
+    <row r="18" ht="15.0" customHeight="true">
+      <c r="A18" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="C18" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="D18" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="E18" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="F18" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="G18" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H18" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I18" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="J18" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="K18" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="L18" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="M18" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="N18" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="O18" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="P18" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="Q18" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="R18" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="S18" t="n" s="2">
+        <v>2.0160206E7</v>
+      </c>
+      <c r="T18" t="n" s="2">
+        <v>2.0160206E7</v>
+      </c>
+      <c r="U18" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="V18" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="W18" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="X18" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="Y18" t="n" s="2">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="Z18" t="n" s="2">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="AA18" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="AB18" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="AC18" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AD18" t="s" s="2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="19" ht="15.0" customHeight="true">
+      <c r="A19" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="C19" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="D19" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="E19" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="F19" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="G19" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H19" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="J19" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="K19" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="L19" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="M19" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="N19" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="O19" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="P19" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="Q19" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="R19" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="S19" t="n" s="2">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="T19" t="n" s="2">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="U19" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="V19" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="W19" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="X19" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="Y19" t="n" s="2">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="Z19" t="n" s="2">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="AA19" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="AB19" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="AC19" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AD19" t="s" s="2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="20" ht="15.0" customHeight="true">
+      <c r="A20" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="C20" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="D20" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="E20" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F20" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="G20" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H20" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="I20" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="J20" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="K20" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="L20" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="M20" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="O20" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="P20" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="Q20" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="R20" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="S20" t="n" s="2">
+        <v>2.0160206E7</v>
+      </c>
+      <c r="T20" t="n" s="2">
+        <v>2.0160206E7</v>
+      </c>
+      <c r="U20" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="V20" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="W20" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="X20" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="Y20" t="n" s="2">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="Z20" t="n" s="2">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="AA20" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="AB20" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="AC20" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AD20" t="s" s="2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="21" ht="15.0" customHeight="true">
+      <c r="A21" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="C21" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="D21" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="E21" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F21" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="G21" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H21" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="I21" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="J21" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="K21" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="L21" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="M21" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="O21" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="P21" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="Q21" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="R21" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="S21" t="n" s="2">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="T21" t="n" s="2">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="U21" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V21" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W21" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="X21" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="Y21" t="n" s="2">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="Z21" t="n" s="2">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="AA21" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="AB21" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="AC21" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AD21" t="s" s="2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="22" ht="15.0" customHeight="true">
+      <c r="A22" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="C22" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="D22" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="E22" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="F22" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="G22" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H22" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I22" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="J22" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="K22" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="L22" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="M22" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="N22" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="O22" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="P22" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="Q22" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="R22" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="S22" t="n" s="2">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="T22" t="n" s="2">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="U22" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V22" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W22" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="X22" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="Y22" t="n" s="2">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="Z22" t="n" s="2">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="AA22" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="AB22" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="AC22" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AD22" t="s" s="2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="23" ht="15.0" customHeight="true">
+      <c r="A23" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="C23" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="D23" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="E23" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="F23" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="G23" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="H23" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="I23" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="J23" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="K23" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="L23" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="O23" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="P23" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="Q23" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="R23" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="S23" t="n" s="2">
+        <v>2.0160212E7</v>
+      </c>
+      <c r="T23" t="n" s="2">
+        <v>2.0160212E7</v>
+      </c>
+      <c r="U23" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V23" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W23" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="X23" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="Y23" t="n" s="2">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="Z23" t="n" s="2">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="AA23" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="AB23" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="AC23" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="AD23" t="s" s="2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="24" ht="15.0" customHeight="true">
+      <c r="A24" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="C24" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="D24" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="E24" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="F24" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="G24" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H24" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="I24" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="J24" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="K24" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="L24" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="M24" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="O24" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="P24" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="Q24" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="R24" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="S24" t="n" s="2">
+        <v>2.0160211E7</v>
+      </c>
+      <c r="T24" t="n" s="2">
+        <v>2.0160211E7</v>
+      </c>
+      <c r="U24" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V24" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W24" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="X24" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="Y24" t="n" s="2">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="Z24" t="n" s="2">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="AA24" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="AB24" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="AC24" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="AD24" t="s" s="2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="25" ht="15.0" customHeight="true">
+      <c r="A25" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="C25" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="D25" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="E25" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F25" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="G25" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H25" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I25" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="J25" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="K25" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="L25" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="M25" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="O25" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="P25" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="Q25" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="R25" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="S25" t="n" s="2">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="T25" t="n" s="2">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="U25" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V25" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W25" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="X25" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="Y25" t="n" s="2">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="Z25" t="n" s="2">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="AA25" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="AB25" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="AC25" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="AD25" t="s" s="2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="26" ht="15.0" customHeight="true">
+      <c r="A26" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="C26" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="D26" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="E26" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F26" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="G26" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H26" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I26" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="J26" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="K26" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="L26" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="O26" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="P26" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="Q26" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="R26" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="S26" t="n" s="2">
+        <v>2.016031E7</v>
+      </c>
+      <c r="T26" t="n" s="2">
+        <v>2.016031E7</v>
+      </c>
+      <c r="U26" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V26" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W26" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="X26" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="Y26" t="n" s="2">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="Z26" t="n" s="2">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="AA26" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="AB26" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="AC26" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="AD26" t="s" s="2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="27" ht="15.0" customHeight="true">
+      <c r="A27" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="D27" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="E27" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F27" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="G27" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H27" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I27" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="J27" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="K27" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="L27" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="O27" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="P27" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="Q27" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="R27" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="S27" t="n" s="2">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="T27" t="n" s="2">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="U27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W27" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="X27" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="Y27" t="n" s="2">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="Z27" t="n" s="2">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="AA27" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="AB27" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="AC27" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AD27" t="s" s="2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="28" ht="15.0" customHeight="true">
+      <c r="A28" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="D28" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="E28" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F28" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="G28" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H28" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I28" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="J28" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="K28" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="L28" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="O28" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="P28" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="Q28" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="R28" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="S28" t="n" s="2">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="T28" t="n" s="2">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="U28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W28" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="X28" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="Y28" t="n" s="2">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="Z28" t="n" s="2">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="AA28" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="AD28" t="s" s="2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="29" ht="15.0" customHeight="true">
+      <c r="A29" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="C29" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="D29" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="E29" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F29" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="G29" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H29" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I29" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="J29" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="K29" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="L29" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="O29" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="P29" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="Q29" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="R29" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="S29" t="n" s="2">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="T29" t="n" s="2">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="U29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W29" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="X29" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="Y29" t="n" s="2">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="Z29" t="n" s="2">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="AA29" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="AB29" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="AC29" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AD29" t="s" s="2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="30" ht="15.0" customHeight="true">
+      <c r="A30" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="C30" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="D30" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="E30" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F30" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="G30" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H30" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I30" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="J30" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="K30" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="L30" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="O30" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="P30" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="Q30" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="R30" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="S30" t="n" s="2">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="T30" t="n" s="2">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="U30" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V30" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W30" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="X30" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="Y30" t="n" s="2">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="Z30" t="n" s="2">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="AA30" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="AB30" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="AC30" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="AD30" t="s" s="2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="31" ht="15.0" customHeight="true">
+      <c r="A31" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="C31" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="D31" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="E31" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F31" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="G31" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H31" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I31" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="J31" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="K31" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="L31" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="O31" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="P31" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="Q31" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="R31" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="S31" t="n" s="2">
+        <v>2.0160301E7</v>
+      </c>
+      <c r="T31" t="n" s="2">
+        <v>2.0160301E7</v>
+      </c>
+      <c r="U31" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V31" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W31" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="X31" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="Y31" t="n" s="2">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="Z31" t="n" s="2">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="AA31" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="AB31" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="AC31" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="AD31" t="s" s="2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="32" ht="15.0" customHeight="true">
+      <c r="A32" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="C32" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="D32" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="E32" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F32" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="G32" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H32" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I32" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="J32" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="K32" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="L32" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="M32" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="O32" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="P32" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="Q32" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="R32" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="S32" t="n" s="2">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="T32" t="n" s="2">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="U32" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V32" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W32" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="X32" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="Y32" t="n" s="2">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="Z32" t="n" s="2">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="AA32" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="AB32" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="AC32" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="AD32" t="s" s="2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="33" ht="15.0" customHeight="true">
+      <c r="A33" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="C33" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="D33" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="E33" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="F33" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="G33" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H33" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="J33" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="K33" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="L33" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="O33" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="P33" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="Q33" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="R33" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="S33" t="n" s="2">
+        <v>2.0160205E7</v>
+      </c>
+      <c r="T33" t="n" s="2">
+        <v>2.0160205E7</v>
+      </c>
+      <c r="U33" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V33" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W33" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="X33" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="Y33" t="n" s="2">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="Z33" t="n" s="2">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="AA33" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="AB33" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="AC33" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="AD33" t="s" s="2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="34" ht="15.0" customHeight="true">
+      <c r="A34" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="C34" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="D34" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="F34" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="G34" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="H34" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="I34" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="J34" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="K34" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="L34" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="O34" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="P34" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="Q34" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="R34" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="S34" t="n" s="2">
+        <v>2.0160208E7</v>
+      </c>
+      <c r="T34" t="n" s="2">
+        <v>2.0160208E7</v>
+      </c>
+      <c r="U34" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="V34" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="W34" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="X34" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="Y34" t="n" s="2">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="Z34" t="n" s="2">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="AA34" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="AB34" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="AC34" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AD34" t="s" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="35" ht="15.0" customHeight="true"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/target/classes/excel/readloocup_output.xlsx
+++ b/target/classes/excel/readloocup_output.xlsx
@@ -27,7 +27,7 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>SirAlwaid</author>
+    <author>MauroWB</author>
   </authors>
   <commentList/>
 </comments>
